--- a/Files/Employees.xlsx
+++ b/Files/Employees.xlsx
@@ -2,19 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://knowledgecornerin-my.sharepoint.com/personal/vaidehi_nair_knowledgecorner_in/Documents/Course Material/Clients/Virtua Search/Excel Python Integration/Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{83C2D443-77B4-4DC5-8CF1-5BB01383890B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3696DF39-1EEB-49DE-AD3B-0B9D9D6B1F81}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{83C2D443-77B4-4DC5-8CF1-5BB01383890B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E90CD1D9-8D9A-4629-8F26-DFBE2499E2A5}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="19406" windowHeight="11486" activeTab="1" xr2:uid="{1DA80AC1-115F-4DBB-B93B-93954F6E5A80}"/>
+    <workbookView xWindow="26772" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{1DA80AC1-115F-4DBB-B93B-93954F6E5A80}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="1" r:id="rId1"/>
     <sheet name="Salary" sheetId="2" r:id="rId2"/>
+    <sheet name="Pivot Data" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
@@ -467,15 +468,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEEFDE70-FF55-4690-9DD6-D9AE71F9251D}">
-  <dimension ref="A1:C8"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="B1" sqref="B1:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -485,8 +487,11 @@
       <c r="C1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -497,8 +502,12 @@
         <f>VLOOKUP(B2, Salary!A:B, 2, FALSE)</f>
         <v>40000</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D2">
+        <f>VLOOKUP(B2, Salary!A:B, 2, FALSE)</f>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -509,8 +518,12 @@
         <f>VLOOKUP(B3, Salary!A:B, 2, FALSE)</f>
         <v>25000</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D3">
+        <f>VLOOKUP(B3, Salary!A:B, 2, FALSE)</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -521,8 +534,12 @@
         <f>VLOOKUP(B4, Salary!A:B, 2, FALSE)</f>
         <v>70000</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D4">
+        <f>VLOOKUP(B4, Salary!A:B, 2, FALSE)</f>
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -533,8 +550,12 @@
         <f>VLOOKUP(B5, Salary!A:B, 2, FALSE)</f>
         <v>40000</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D5">
+        <f>VLOOKUP(B5, Salary!A:B, 2, FALSE)</f>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -545,8 +566,12 @@
         <f>VLOOKUP(B6, Salary!A:B, 2, FALSE)</f>
         <v>70000</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D6">
+        <f>VLOOKUP(B6, Salary!A:B, 2, FALSE)</f>
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -557,8 +582,12 @@
         <f>VLOOKUP(B7, Salary!A:B, 2, FALSE)</f>
         <v>40000</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D7">
+        <f>VLOOKUP(B7, Salary!A:B, 2, FALSE)</f>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -566,6 +595,10 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <f>VLOOKUP(B8, Salary!A:B, 2, FALSE)</f>
+        <v>70000</v>
+      </c>
+      <c r="D8">
         <f>VLOOKUP(B8, Salary!A:B, 2, FALSE)</f>
         <v>70000</v>
       </c>
@@ -577,9 +610,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E07CA666-2720-4793-9787-B8C7F587BA09}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -642,4 +676,44 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DDDE29B-643A-4D87-A999-1AEBB7FF392C}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>